--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zjnt8\PycharmProjects\qiyeweixin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zjnt8\PycharmProjects\qiye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380572E5-11FD-428B-BC1D-267C9CD8ADC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C7A1F5-0EFB-4C6E-A9D3-B458EE4BB632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,35 +27,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>当日积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月累计天翼发展量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日累计天翼发展量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当日积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当月积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张俊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当月累计天翼发展量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日累计天翼发展量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘海</t>
+    <t>aaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +384,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -395,27 +395,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>3</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zjnt8\PycharmProjects\qiye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C7A1F5-0EFB-4C6E-A9D3-B458EE4BB632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCF6DA1-2125-47BD-A93F-27F3A8237A61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>当日积分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +52,6 @@
   </si>
   <si>
     <t>张俊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -433,26 +429,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>60</v>
-      </c>
-      <c r="D3">
-        <v>300</v>
-      </c>
-      <c r="E3">
-        <v>1500</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
